--- a/ModelsPerf.xlsx
+++ b/ModelsPerf.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b2d692b7d4df3c6/EPFL/MA_I-II/Sem_II/Deep_learning/MiniProject/DLC_mini_project_1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{9D50695D-9ABF-4B29-A449-3460B489047B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{C60D5167-2D86-4542-822F-CB0BA3DD152F}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{2E7BA66F-0FD6-4190-B5B5-8402B077F421}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9080"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -81,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,29 +106,29 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -139,23 +136,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -164,51 +161,51 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -216,10 +213,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -236,13 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -262,6 +253,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -374,7 +371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -568,40 +565,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDCA6AD-E07B-43CD-88CE-E221EE70D35F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
@@ -611,10 +608,10 @@
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
@@ -622,209 +619,209 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>28</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>32</v>
       </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>28</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="10">
         <v>32</v>
       </c>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12">
-        <v>2</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="G5" s="17" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>32</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>64</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>3</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>32</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>32</v>
       </c>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-      <c r="K6" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
-        <v>3</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12">
-        <v>3</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10">
+        <v>3</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <f xml:space="preserve"> C6*B13</f>
         <v>448</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="17" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="G9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <f xml:space="preserve"> I6*H13</f>
         <v>224</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="17" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="G10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1">
+      <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="G11" s="10" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>0.01</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -833,10 +830,10 @@
       <c r="D12" s="5">
         <v>100</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>0.01</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -846,7 +843,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -874,7 +871,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,15 +897,15 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" thickBot="1"/>
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
@@ -918,10 +915,10 @@
       <c r="G16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="4" t="s">
         <v>9</v>
       </c>
@@ -929,209 +926,209 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2">
         <v>28</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>32</v>
       </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>3</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="2">
         <v>28</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>32</v>
       </c>
-      <c r="J17" s="12">
-        <v>1</v>
-      </c>
-      <c r="K17" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
-        <v>3</v>
-      </c>
-      <c r="E18" s="13">
-        <v>3</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12">
-        <v>2</v>
-      </c>
-      <c r="K18" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10">
+        <v>2</v>
+      </c>
+      <c r="K18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="G19" s="17" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="2">
         <v>32</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>32</v>
       </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13">
-        <v>3</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="2">
         <v>32</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="10">
         <v>32</v>
       </c>
-      <c r="J20" s="12">
-        <v>1</v>
-      </c>
-      <c r="K20" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="J20" s="10">
+        <v>1</v>
+      </c>
+      <c r="K20" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
-        <v>2</v>
-      </c>
-      <c r="E21" s="13">
-        <v>2</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12">
-        <v>2</v>
-      </c>
-      <c r="K21" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
+        <v>2</v>
+      </c>
+      <c r="K21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="G22" s="17" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <f xml:space="preserve"> C20*B27</f>
         <v>224</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="17" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="G23" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="12">
+      <c r="I23" s="10">
         <f xml:space="preserve"> I20*H27</f>
         <v>352</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="17" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="G24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1">
+      <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="G25" s="10" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="G25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1">
+      <c r="A26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="9">
         <v>0.01</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1140,10 +1137,10 @@
       <c r="D26" s="5">
         <v>400</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>0.01</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1153,7 +1150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1178,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1215,5 +1212,10 @@
     <mergeCell ref="H16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>